--- a/biology/Zoologie/Grand_faune/Grand_faune.xlsx
+++ b/biology/Zoologie/Grand_faune/Grand_faune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hipparchia fatua
 Le Grand faune (Hipparchia fatua)  est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Hipparchia.
@@ -512,15 +524,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il a été nommé Hipparchia fatua par Christian Friedrich Freyer en 1844.
-Synonymes : Neohipparchia fatua [1].
-Noms vernaculaires
-Le Grand faune se nomme Feyer's Grayling en anglais, Νότια ιππάρχια en grec et Anadolu Karameleğ en turc[1],[2],[3].
-Sous-espèce
-Hipparchia fatua klapperichi (Gross &amp; Ebert, 1975)
-Hipparchia fatua persiscana (Verity, 1937) en Arménie[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été nommé Hipparchia fatua par Christian Friedrich Freyer en 1844.
+Synonymes : Neohipparchia fatua .
+</t>
         </is>
       </c>
     </row>
@@ -545,10 +555,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand faune se nomme Feyer's Grayling en anglais, Νότια ιππάρχια en grec et Anadolu Karameleğ en turc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Grand_faune</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hipparchia fatua klapperichi (Gross &amp; Ebert, 1975)
+Hipparchia fatua persiscana (Verity, 1937) en Arménie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grand_faune</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand faune est de couleur marron très foncé pour le mâle, marron plus doré avec une bade submarginale plus claire pour la femelle, avec en bordure une frange entrecoupée et deux ocelles noirs aveugles ou très discrètement pupillés aux antérieures et un très petit aux postérieures.
 Le revers est marbré d'ocre et de blanc avec les deux ocelles noirs cerclés d'ocre aux antérieures et le très petit aux postérieures.
@@ -556,71 +642,183 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Grand_faune</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grand_faune</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Le Grand faune vole en une génération entre mai et octobre[4].
-Plantes hôtes
-Ses plantes hôtes sont diverses graminées des Poa  et des Festuca[1].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand faune vole en une génération entre mai et octobre.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Grand_faune</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_faune</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses graminées des Poa  et des Festuca.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grand_faune</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Grand faune est présent dans le sud-est de l'Europe en Bulgarie dans la vallée de la Struma, en Grèce, ainsi qu'en Turquie, et au Moyen-Orient jusqu'en Arménie[4].
-Biotope
-Il réside sur des pentes rocheuses, dans des oliveraies et des vergers.
-Protection
-Statut non connu.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand faune est présent dans le sud-est de l'Europe en Bulgarie dans la vallée de la Struma, en Grèce, ainsi qu'en Turquie, et au Moyen-Orient jusqu'en Arménie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grand_faune</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside sur des pentes rocheuses, dans des oliveraies et des vergers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grand_faune</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_faune</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Statut non connu.
 </t>
         </is>
       </c>
